--- a/files/marketplaces.xlsx
+++ b/files/marketplaces.xlsx
@@ -37,7 +37,7 @@
     <t>https://ozon.ru/t/9wqqrpM</t>
   </si>
   <si>
-    <t>//div[contains(@class, "y8n")]</t>
+    <t>//span[contains(text(), "₽")]</t>
   </si>
   <si>
     <t>Eldorado</t>
@@ -62,7 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -70,18 +70,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
@@ -108,23 +99,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -349,10 +334,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -360,10 +345,10 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -371,10 +356,10 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -382,10 +367,10 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -393,28 +378,29 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
